--- a/Friley/friley_Guidelines.xlsx
+++ b/Friley/friley_Guidelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\Friley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462605B-E85A-4276-A4E6-93CA2623CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDA6A9E-EAFA-462F-997F-AC4AE39BF36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Shift Type</t>
   </si>
   <si>
     <t>Minimum # of shifts worked to excuse requirement</t>
@@ -121,28 +118,19 @@
     <t>None</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>Exception Note (Blank if N/A)</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>3+ b/l shifts excuse WE</t>
+    <t>All SUP</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>Time</t>
   </si>
   <si>
-    <t>All SUP</t>
+    <t>3+ lunch shifts excuse Late Night</t>
   </si>
 </sst>
 </file>
@@ -385,7 +373,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +393,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +425,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +497,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,7 +541,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,15 +549,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,7 +585,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10818,7 +10806,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10840,78 +10828,75 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -10919,7 +10904,7 @@
     <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
@@ -10930,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
@@ -10970,7 +10955,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -10978,12 +10963,12 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
@@ -10991,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -11035,6 +11020,9 @@
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" t="b">
         <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
@@ -12412,51 +12400,51 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -12466,13 +12454,13 @@
     </row>
     <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+      <c r="F3" s="1">
+        <v>0.95833333333333337</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -12480,7 +12468,7 @@
     </row>
     <row r="4" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -12488,7 +12476,7 @@
     <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
@@ -12609,7 +12597,7 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -12617,12 +12605,12 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
@@ -13970,7 +13958,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13985,27 +13973,27 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>0.375</v>
@@ -14013,7 +14001,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>0.375</v>
@@ -14024,7 +14012,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.54166666666666663</v>
@@ -14035,7 +14023,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0.625</v>
@@ -14046,7 +14034,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.8125</v>
